--- a/biology/Médecine/Douleur_neuropathique/Douleur_neuropathique.xlsx
+++ b/biology/Médecine/Douleur_neuropathique/Douleur_neuropathique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La douleur neuropathique est une douleur causée par une lésion des voies sensitives (canalopathies des canaux calciques)[1],[2] du système nerveux, central ou périphérique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La douleur neuropathique est une douleur causée par une lésion des voies sensitives (canalopathies des canaux calciques), du système nerveux, central ou périphérique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Symptomatologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La douleur neuropathique est généralement associée à une dysesthésie et une allodynie[3]. Il peut exister une zone gâchette déclenchant les douleurs. Les douleurs neuropathiques peuvent être à type de brûlure, de froid, ou de sensations de piqûres, et s'accompagner de sensations de fourmillement[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La douleur neuropathique est généralement associée à une dysesthésie et une allodynie. Il peut exister une zone gâchette déclenchant les douleurs. Les douleurs neuropathiques peuvent être à type de brûlure, de froid, ou de sensations de piqûres, et s'accompagner de sensations de fourmillement.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les douleurs neuropathiques concernent environ 7 % de la population générale et 25 % des patients atteints de douleurs chroniques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les douleurs neuropathiques concernent environ 7 % de la population générale et 25 % des patients atteints de douleurs chroniques.
 </t>
         </is>
       </c>
@@ -573,25 +589,27 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un médicament antiépileptique ou un médicament IRSNa peut être proposé[5]. Le traitement est, bien évidemment, celui de la cause lorsque c'est possible.
-Le traitement médicamenteux de première intention repose sur deux classes thérapeutiques : certains antiépileptiques, et certains antidépresseurs. Ces médicaments sont alors prescrits pour leurs propriétés antalgiques qui sont indépendantes de leurs effets antiépileptiques ou antidépresseurs. Dans les douleurs neuropathiques localisées, des traitements topiques, en général très bien tolérés, peuvent aussi être utilisés[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un médicament antiépileptique ou un médicament IRSNa peut être proposé. Le traitement est, bien évidemment, celui de la cause lorsque c'est possible.
+Le traitement médicamenteux de première intention repose sur deux classes thérapeutiques : certains antiépileptiques, et certains antidépresseurs. Ces médicaments sont alors prescrits pour leurs propriétés antalgiques qui sont indépendantes de leurs effets antiépileptiques ou antidépresseurs. Dans les douleurs neuropathiques localisées, des traitements topiques, en général très bien tolérés, peuvent aussi être utilisés.
 Antiépileptiques :
-Carbamazépine[6] ;
-Gabapentine[6] ;
-Prégabaline[6] ;
-Oxcarbazépine (hors AMM)[6].
+Carbamazépine ;
+Gabapentine ;
+Prégabaline ;
+Oxcarbazépine (hors AMM).
 Antidépresseurs tricycliques :
-Amitriptyline[6] ;
-Clomipramine[6] ;
-Imipramine[6].
+Amitriptyline ;
+Clomipramine ;
+Imipramine.
 Antidépresseurs IRSNa :
-Duloxétine[6] ;
-Venlafaxine (hors AMM)[6].
+Duloxétine ;
+Venlafaxine (hors AMM).
 Anesthésiques locaux :
-Lidocaïne[6] ;
-Capsaïcine[6].</t>
+Lidocaïne ;
+Capsaïcine.</t>
         </is>
       </c>
     </row>
